--- a/data/indicator_words.xlsx
+++ b/data/indicator_words.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B574"/>
+  <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>provision</t>
+          <t>provide_food</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>provide_food</t>
+          <t>hot_meal</t>
         </is>
       </c>
     </row>
@@ -2409,19 +2409,19 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>hot_meal</t>
+          <t>food_price</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>i_food</t>
+          <t>i_logistic</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>food_price</t>
+          <t>logistic</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>logistic</t>
+          <t>logistics</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>logistics</t>
+          <t>road</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>border</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>border</t>
+          <t>truck</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>load</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>distribution</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>distribution</t>
+          <t>fuel</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>electricity</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>facility</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>health_facility</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>health_facility</t>
+          <t>humanitarian_access</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>humanitarian_access</t>
+          <t>road</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>infrastructure</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>infrastructure</t>
+          <t>trucking</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>trucking</t>
+          <t>logistics</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>logistics</t>
+          <t>logistics_cluster</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>logistics_cluster</t>
+          <t>storage</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>storage</t>
+          <t>cargo</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>cargo</t>
+          <t>supply</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>supply</t>
+          <t>deliver</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>deliver</t>
+          <t>base</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>warehouse</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>warehouse</t>
+          <t>mobile</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>mobile</t>
+          <t>logistic</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>logistic</t>
+          <t>instal</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>instal</t>
+          <t>roadway</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>roadway</t>
+          <t>bridge</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>highway</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>highway</t>
+          <t>railway</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>railway</t>
+          <t>airport</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>airport</t>
+          <t>port</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>dam</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>dam</t>
+          <t>tunnel</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>tunnel</t>
+          <t>pipeline</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>pipeline</t>
+          <t>water treatment plant</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>water treatment plant</t>
+          <t>power plant</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>power plant</t>
+          <t>telecommunications network</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>telecommunications network</t>
+          <t>sewer system</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>sewer system</t>
+          <t>public transportation</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>grid</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>grid</t>
+          <t>network</t>
         </is>
       </c>
     </row>
@@ -2925,19 +2925,19 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>reservoir</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>i_logistic</t>
+          <t>i_health</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>reservoir</t>
+          <t>health</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>medical</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>medical</t>
+          <t>medicine</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>medicine</t>
+          <t>surgery</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>surgery</t>
+          <t>acute</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>acute</t>
+          <t>acute_malnutrition</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>acute_malnutrition</t>
+          <t>treatment</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>case</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>case_report</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>case_report</t>
+          <t>suspect</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>suspect</t>
+          <t>suspect_case</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>suspect_case</t>
+          <t>cholera_case</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>cholera_case</t>
+          <t>report_case</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>report_case</t>
+          <t>case_death</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>case_death</t>
+          <t>cholera</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>cholera</t>
+          <t>new_case</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>new_case</t>
+          <t>coronavirus</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>coronavirus</t>
+          <t>health</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>ministry_health</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ministry_health</t>
+          <t>care</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>care</t>
+          <t>health_care</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>health_care</t>
+          <t>mental_health</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>mental_health</t>
+          <t>confirm_case</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>confirm_case</t>
+          <t>case_confirm</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>case_confirm</t>
+          <t>supply</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>supply</t>
+          <t>kit</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>kit</t>
+          <t>medical</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>medical</t>
+          <t>medical_supply</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>medical_supply</t>
+          <t>medicine</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>medicine</t>
+          <t>health_facility</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>health_facility</t>
+          <t>hospital</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>admit</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>operate</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>operate</t>
+          <t>health_service</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>health_service</t>
+          <t>healthcare</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>outbreak</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>outbreak</t>
+          <t>cholera_outbreak</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>cholera_outbreak</t>
+          <t>disease</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>disease</t>
+          <t>disease_outbreak</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>disease_outbreak</t>
+          <t>spread</t>
         </is>
       </c>
     </row>
@@ -3417,19 +3417,19 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>number_case</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>i_health</t>
+          <t>i_gender_pss</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>number_case</t>
+          <t>dignity</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>dignity</t>
+          <t>gender</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>pregnant</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>pregnant</t>
+          <t>lactate</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>lactate</t>
+          <t>lactating</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>lactating</t>
+          <t>child</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>woman</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>woman_child</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>woman_child</t>
+          <t>include_child</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>include_child</t>
+          <t>child_woman</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>child_woman</t>
+          <t>child_protection</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>child_protection</t>
+          <t>unaccompanied</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>unaccompanied</t>
+          <t>mental_health</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>mental_health</t>
+          <t>mental</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>protection</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>protection</t>
+          <t>social</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>social_protection</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>social_protection</t>
+          <t>protection_risk</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>protection_risk</t>
+          <t>protection_service</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>protection_service</t>
+          <t>vulnerable</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>vulnerable</t>
+          <t>vulnerable_population</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>vulnerable_population</t>
+          <t>child_displace</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>child_displace</t>
+          <t>gbv</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>gbv</t>
+          <t>psychosocial</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>psychosocial</t>
+          <t>psychosocial_support</t>
         </is>
       </c>
     </row>
@@ -3729,19 +3729,19 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>psychosocial_support</t>
+          <t>child_kill</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>i_gender_pss</t>
+          <t>i_protection</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>child_kill</t>
+          <t>trauma</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>trauma</t>
+          <t>mental</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>disable</t>
         </is>
       </c>
     </row>
@@ -3777,19 +3777,19 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>disable</t>
+          <t>disability</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>i_protection</t>
+          <t>i_response</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>disability</t>
+          <t>personnel</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>personnel</t>
+          <t>funding</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>funding</t>
+          <t>unicef</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>unicef</t>
+          <t>require</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>require</t>
+          <t>appeal</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>appeal</t>
+          <t>fund</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>gap</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>requirement</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>requirement</t>
+          <t>funding_gap</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>funding_gap</t>
+          <t>response</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>plan</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>response_plan</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>response_plan</t>
+          <t>humanitarian_response</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>humanitarian_response</t>
+          <t>emergency_response</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>emergency_response</t>
+          <t>humanitarian</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>humanitarian</t>
+          <t>humanitarian_assistance</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>humanitarian_assistance</t>
+          <t>humanitarian_need</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>humanitarian_need</t>
+          <t>need_humanitarian</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>need_humanitarian</t>
+          <t>actor</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>actor</t>
+          <t>wfp</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>wfp</t>
+          <t>lead</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>lead</t>
+          <t>coordination</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>local</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>united</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>united</t>
+          <t>nations</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>nations</t>
+          <t>united_nations</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>united_nations</t>
+          <t>humanitarian_community</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>humanitarian_community</t>
+          <t>assessment</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>conduct</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>conduct</t>
+          <t>rapid</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>rapid</t>
+          <t>team</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>need_assessment</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>need_assessment</t>
+          <t>rapid_assessment</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>rapid_assessment</t>
+          <t>wfp_continue</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>wfp_continue</t>
+          <t>continue_support</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>continue_support</t>
+          <t>partner_continue</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>partner_continue</t>
+          <t>continue_increase</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>continue_increase</t>
+          <t>deliver</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>deliver</t>
+          <t>address</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>immediate</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>immediate</t>
+          <t>emergency</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>emergency</t>
+          <t>management</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>emergency_management</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>emergency_management</t>
+          <t>emergency_shelter</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>emergency_shelter</t>
+          <t>humanitarian_access</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>humanitarian_access</t>
+          <t>disaster_management</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>disaster_management</t>
+          <t>operation</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>rescue</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>rescue</t>
+          <t>search</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>search_rescue</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>search_rescue</t>
+          <t>assistance</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>assistance</t>
+          <t>cash_assistance</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>cash_assistance</t>
+          <t>assistance_people</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>assistance_people</t>
+          <t>provide</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>provide_food</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>provide_food</t>
+          <t>hot_meal</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>hot_meal</t>
+          <t>support</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>psychosocial</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>psychosocial</t>
+          <t>psychosocial_support</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>psychosocial_support</t>
+          <t>support_people</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>support_people</t>
+          <t>wfp_support</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>wfp_support</t>
+          <t>reach</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>reach</t>
+          <t>reach_people</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>reach_people</t>
+          <t>wfp_reach</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>wfp_reach</t>
+          <t>people_reach</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>people_reach</t>
+          <t>deploy</t>
         </is>
       </c>
     </row>
@@ -4768,12 +4768,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>i_demand_side</t>
+          <t>i_problem</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>lack</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>need</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>demand</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>priority</t>
+          <t>gap</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>receive</t>
+          <t>priority</t>
         </is>
       </c>
     </row>
@@ -4833,31 +4833,31 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>shortage</t>
+          <t>receive</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>i_supply_side</t>
+          <t>i_demand_side</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>shortage</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>i_supply_side</t>
+          <t>i_demand_side</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>contribute</t>
+          <t>lack</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>response</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>contribute</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>provide</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>deploy</t>
+          <t>source</t>
         </is>
       </c>
     </row>
@@ -4917,67 +4917,67 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>receive</t>
+          <t>address</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>i_tense_future</t>
+          <t>i_supply_side</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>xx</t>
+          <t>deploy</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>i_assessments</t>
+          <t>i_supply_side</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>receive</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>i_assessments</t>
+          <t>i_tense_future</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>xx</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>i_commodity_market</t>
+          <t>i_assessments</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>commodity</t>
+          <t>assess</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>i_commodity_market</t>
+          <t>i_assessments</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>assessment</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>commodity</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>wheat</t>
+          <t>market</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>flour</t>
+          <t>trade</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>wheat_flour</t>
+          <t>wheat</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>average_price</t>
+          <t>flour</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>wheat_flour</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>consumption</t>
+          <t>average_price</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>milk</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>consumption</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>cash</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>staple</t>
+          <t>income</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>staple_food</t>
+          <t>inflation</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>assistance</t>
+          <t>staple</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>cash_assistance</t>
+          <t>staple_food</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>assistance_people</t>
+          <t>assistance</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>price_increase</t>
+          <t>cash_assistance</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>assistance_people</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>price_increase</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>trend</t>
+          <t>demand</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>food_price</t>
+          <t>price</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>trend_average</t>
+          <t>trend</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>trend_price</t>
+          <t>food_price</t>
         </is>
       </c>
     </row>
@@ -5253,31 +5253,31 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>region_price</t>
+          <t>trend_average</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>i_displacement</t>
+          <t>i_commodity_market</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>internally_displace</t>
+          <t>trend_price</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>i_displacement</t>
+          <t>i_commodity_market</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>displace</t>
+          <t>region_price</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>displace_person</t>
+          <t>internally_displace</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>displace_people</t>
+          <t>displace</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>displace_people</t>
+          <t>displace_person</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>displacement</t>
+          <t>displace_people</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>unaccompanied</t>
+          <t>displace_people</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>displacement</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>idp_site</t>
+          <t>unaccompanied</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>idp_shelter</t>
+          <t>idp</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>idp_camp</t>
+          <t>idp_site</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>host_community</t>
+          <t>idp_shelter</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>refugee_host</t>
+          <t>idp_camp</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>refugee</t>
+          <t>host_community</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>asylum</t>
+          <t>refugee_host</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>seeker</t>
+          <t>refugee</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>asylum_seeker</t>
+          <t>asylum</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>refugee_camp</t>
+          <t>seeker</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>migrant</t>
+          <t>asylum_seeker</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>evacuate</t>
+          <t>refugee_camp</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>displace</t>
+          <t>migrant</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>people_displace</t>
+          <t>evacuate</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>newly_displace</t>
+          <t>displace</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>child_displace</t>
+          <t>people_displace</t>
         </is>
       </c>
     </row>
@@ -5553,31 +5553,31 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>camp</t>
+          <t>newly_displace</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>i_authority</t>
+          <t>i_displacement</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>governorate</t>
+          <t>child_displace</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>i_authority</t>
+          <t>i_displacement</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>camp</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>agency</t>
+          <t>governorate</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>un_agency</t>
+          <t>un</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>agency</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>declare</t>
+          <t>un_agency</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>state_emergency</t>
+          <t>state</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ministry</t>
+          <t>declare</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ministry_health</t>
+          <t>state_emergency</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>unrwa</t>
+          <t>ministry</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>accord</t>
+          <t>ministry_health</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>accord_ministry</t>
+          <t>unrwa</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>accord</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>accord_ministry</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>cluster</t>
+          <t>official</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>humanitarian_partner</t>
+          <t>partner</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>unhcr</t>
+          <t>cluster</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>unhcr_partner</t>
+          <t>humanitarian_partner</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>cluster_partner</t>
+          <t>unhcr</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>partner_reach</t>
+          <t>unhcr_partner</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>cluster_partner</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>united</t>
+          <t>partner_reach</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>nations</t>
+          <t>government</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>united_nations</t>
+          <t>united</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>department</t>
+          <t>nations</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>ocha</t>
+          <t>united_nations</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>department</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>ocha</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>foreign</t>
+          <t>national</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>foreign_national</t>
+          <t>authority</t>
         </is>
       </c>
     </row>
@@ -5925,31 +5925,31 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>foreign</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>i_statement_certainty</t>
+          <t>i_authority</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>foreign_national</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>i_statement_certainty</t>
+          <t>i_authority</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>estimate_people</t>
+          <t>provide</t>
         </is>
       </c>
     </row>
@@ -5973,31 +5973,31 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>reportedly</t>
+          <t>estimate_people</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>i_severity</t>
+          <t>i_statement_certainty</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>severe</t>
+          <t>estimate</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>i_severity</t>
+          <t>i_statement_certainty</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>severe_acute</t>
+          <t>reportedly</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>moderate_acute</t>
+          <t>severe</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>severe_acute</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>dire</t>
+          <t>moderate_acute</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>priority</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>dire</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>priority</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>important</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>total_number</t>
+          <t>scale</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>total_people</t>
+          <t>total</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>total_case</t>
+          <t>total_number</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>heavy</t>
+          <t>total_people</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>total_case</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>heavy</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>devastating</t>
+          <t>impact</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>significant</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>devastating</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>effect</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>urgent</t>
+          <t>need</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>urgent_need</t>
+          <t>meet</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>urgent</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>immediate</t>
+          <t>urgent_need</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>emergency</t>
+          <t>address</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>immediate</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>light_moderate</t>
+          <t>emergency</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>light</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>completely</t>
+          <t>light_moderate</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>partially_destroy</t>
+          <t>partially</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>completely</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>high_risk</t>
+          <t>partially_destroy</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>high_number</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>high_risk</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>high_level</t>
+          <t>high_number</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>intensity</t>
+          <t>rate</t>
         </is>
       </c>
     </row>
@@ -6405,31 +6405,31 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>severely_affect</t>
+          <t>high_level</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>i_change_increase</t>
+          <t>i_severity</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>deteriorate</t>
+          <t>intensity</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>i_change_increase</t>
+          <t>i_severity</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>increase_compare</t>
+          <t>severely_affect</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>newly_displace</t>
+          <t>deteriorate</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>newly</t>
+          <t>increase_compare</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>newly_displace</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>increase_number</t>
+          <t>newly</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>rise</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>increase_risk</t>
+          <t>increase_number</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>price_increase</t>
+          <t>increase</t>
         </is>
       </c>
     </row>
@@ -6525,487 +6525,487 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>increasingly</t>
+          <t>increase_risk</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>i_change_decrease</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>price_increase</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>i_change_decrease</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>decrease_compare</t>
+          <t>increasingly</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>i_change_decrease</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>compare_average</t>
+          <t>raise</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>i_change_steady</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>situation_remain</t>
+          <t>launch</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>i_change_steady</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>remain</t>
+          <t>strengthen</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>i_change_steady</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>remain_high</t>
+          <t>rise</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>i_change_steady</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>people_remain</t>
+          <t>develop</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>i_change_steady</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>produce</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>i_change_steady</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>remain_stable</t>
+          <t>begin</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>i_change_steady</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>maintain</t>
+          <t>scale</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>i_change_steady</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>maintain_strength</t>
+          <t>deploy</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>border</t>
+          <t>exacerbate</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>crossing</t>
+          <t>deteriorate</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>cross</t>
+          <t>build</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>expand</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>border_crossing</t>
+          <t>mobilize</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>cross_border</t>
+          <t>add</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_increase</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>crossing_point</t>
+          <t>spread</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_decrease</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>village</t>
+          <t>decrease</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_decrease</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>villager</t>
+          <t>decrease_compare</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_decrease</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>village_tract</t>
+          <t>compare_average</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_decrease</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>tract</t>
+          <t>decrease</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_decrease</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>reduce</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_decrease</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>decline</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_decrease</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>urban</t>
+          <t>drop</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>situation_remain</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>rural_area</t>
+          <t>remain</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>urban_area</t>
+          <t>remain_high</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>people_remain</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>stable</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>remain_stable</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>north_south</t>
+          <t>maintain</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>east</t>
+          <t>maintain_strength</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>northern</t>
+          <t>continue</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>eastern</t>
+          <t>remain</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>northern_portion</t>
+          <t>sustain</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>stay</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>maintain</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>district_region</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>i_geography</t>
+          <t>i_change_steady</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>township</t>
+          <t>persist</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>border</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>crossing</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>region_country</t>
+          <t>cross</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>point</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>border_crossing</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>neighbouring_country</t>
+          <t>cross_border</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>neighbouring</t>
+          <t>crossing_point</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>neighboring_country</t>
+          <t>village</t>
         </is>
       </c>
     </row>
@@ -7113,209 +7113,557 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>neighboring</t>
+          <t>villager</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>armed</t>
+          <t>village_tract</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>conflict</t>
+          <t>tract</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>armed_group</t>
+          <t>location</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>armed_conflict</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>forces</t>
+          <t>urban</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>clash</t>
+          <t>rural</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>rural_area</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>ammunition</t>
+          <t>urban_area</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>live_ammunition</t>
+          <t>south</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>unrest</t>
+          <t>north</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>force</t>
+          <t>west</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>north_south</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>civilian</t>
+          <t>east</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>violence</t>
+          <t>northern</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>civilian_casualty</t>
+          <t>eastern</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>i_violence</t>
+          <t>i_geography</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>shooting</t>
+          <t>northern_portion</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>district_region</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>township</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>region_country</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>western</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>neighbouring_country</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>neighbouring</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>neighboring_country</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>i_geography</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>neighboring</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
           <t>i_violence</t>
         </is>
       </c>
-      <c r="B574" t="inlineStr">
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>armed</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>armed_group</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>armed_conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>forces</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>clash</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>security</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>ammunition</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>live_ammunition</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>unrest</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>force</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>civilian</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>violence</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>civilian_casualty</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>shooting</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>i_violence</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
         <is>
           <t>firearm</t>
         </is>
